--- a/biology/Biologie cellulaire et moléculaire/Jonction_dermo-épidermique/Jonction_dermo-épidermique.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Jonction_dermo-épidermique/Jonction_dermo-épidermique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jonction_dermo-%C3%A9pidermique</t>
+          <t>Jonction_dermo-épidermique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La jonction dermo-épidermique, appelée aussi lame basale épidermique ou membrane basale épidermique, est la région tissulaire qui sépare le derme de l'épiderme.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jonction_dermo-%C3%A9pidermique</t>
+          <t>Jonction_dermo-épidermique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La microscopie électronique révèle trois zones distinctes dans la jonction dermo-épidermique[1] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La microscopie électronique révèle trois zones distinctes dans la jonction dermo-épidermique : 
 la membrane plasmique du pôle basal des cellules du stratum basale
 la membrane basale composée de deux feuillets, la lamina lucida (zone transparente aux électrons) et la lamina densa (zone dense aux électrons)
 la zone fibrillaire ou sub-lamina densa</t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jonction_dermo-%C3%A9pidermique</t>
+          <t>Jonction_dermo-épidermique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La jonction dermo-épidermique a une fonction d'adhésion entre l'épiderme et le derme, de barrière physico-chimique, de circulation orientée de nutriments et de composants du système immunitaire[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La jonction dermo-épidermique a une fonction d'adhésion entre l'épiderme et le derme, de barrière physico-chimique, de circulation orientée de nutriments et de composants du système immunitaire.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jonction_dermo-%C3%A9pidermique</t>
+          <t>Jonction_dermo-épidermique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les dermatoses bulleuses de nature auto-immune (nécrolyse épidermique toxique, syndrome de Stevens-Johnson) sont liées à la présence d'anticorps dirigés contre les structures antigéniques des systèmes d'adhésion interkératinocytaire ou de la jonction dermo-épidermique[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les dermatoses bulleuses de nature auto-immune (nécrolyse épidermique toxique, syndrome de Stevens-Johnson) sont liées à la présence d'anticorps dirigés contre les structures antigéniques des systèmes d'adhésion interkératinocytaire ou de la jonction dermo-épidermique.
 </t>
         </is>
       </c>
